--- a/project1_iteration2/CSE3063F21P1_Metrics_GRP1_iteration2.xlsx
+++ b/project1_iteration2/CSE3063F21P1_Metrics_GRP1_iteration2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rasim\YandexDisk\Files\Workspaces\CSE3063F21P1_GRP1\project1_iteration2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABCA4DD2-0AAA-4377-9144-651D3B512BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C5D6A7-1311-46BB-9E0B-BDB719A8AEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,7 +95,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -103,6 +103,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -419,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="AK9" sqref="AK9"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AK6" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,10 +612,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="4">
-        <v>11</v>
-      </c>
-      <c r="R3" s="4">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="R3" s="5">
+        <f>18/11</f>
+        <v>1.6363636363636365</v>
       </c>
       <c r="S3" s="4">
         <v>0</v>
@@ -623,14 +625,14 @@
         <v>5</v>
       </c>
       <c r="U3" s="4">
-        <f>11/53</f>
-        <v>0.20754716981132076</v>
+        <f>18/52</f>
+        <v>0.34615384615384615</v>
       </c>
       <c r="V3" s="4">
         <v>69</v>
       </c>
       <c r="W3" s="4">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="X3" s="4">
         <f>69/11</f>
@@ -643,21 +645,21 @@
         <v>14</v>
       </c>
       <c r="AA3" s="4">
-        <f>24/69</f>
-        <v>0.34782608695652173</v>
+        <f>30/69</f>
+        <v>0.43478260869565216</v>
       </c>
       <c r="AB3" s="4">
-        <v>1010</v>
+        <v>1088</v>
       </c>
       <c r="AC3" s="4">
-        <f>1010/11</f>
-        <v>91.818181818181813</v>
+        <f>1088/11</f>
+        <v>98.909090909090907</v>
       </c>
       <c r="AD3" s="4">
         <v>8</v>
       </c>
       <c r="AE3" s="4">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="AF3" s="4">
         <v>1</v>
@@ -667,19 +669,19 @@
       </c>
       <c r="AH3" s="4"/>
       <c r="AI3" s="4">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AJ3" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK3" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL3" s="4">
         <v>0</v>
       </c>
       <c r="AM3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3" s="4">
         <v>0</v>
